--- a/接单列表.xlsx
+++ b/接单列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,14 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正在处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1705-1-2905-</t>
   </si>
   <si>
@@ -227,6 +219,14 @@
   </si>
   <si>
     <t>链表平衡二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合格补偿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,74 +322,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -409,7 +341,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -666,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -675,7 +607,7 @@
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -815,9 +747,11 @@
         <v>42857</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
+        <v>350</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -849,9 +783,11 @@
         <v>42869</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="E10" s="1">
+        <v>200</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -871,32 +807,40 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4">
         <v>42879</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1">
+        <v>160</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4">
         <v>42884</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -904,36 +848,48 @@
       <c r="C14" s="4">
         <v>42899</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <v>160</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4">
         <v>42897</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
+        <v>200</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4">
         <v>42899</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -941,19 +897,23 @@
         <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="4">
         <v>42903</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1">
+        <v>180</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="4">
         <v>42912</v>
@@ -964,13 +924,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="8">
         <v>42929</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -979,7 +945,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="date" showInputMessage="1" showErrorMessage="1" sqref="C1:C17 C18:C1048576">
+    <dataValidation type="date" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>42432</formula1>
       <formula2>43893</formula2>
     </dataValidation>
